--- a/data9th.xlsx
+++ b/data9th.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="148">
   <si>
     <t>SR</t>
   </si>
@@ -355,6 +355,111 @@
   </si>
   <si>
     <t>Mr. Nehru Dutt</t>
+  </si>
+  <si>
+    <t>9001.jpg</t>
+  </si>
+  <si>
+    <t>9002.jpg</t>
+  </si>
+  <si>
+    <t>9003.jpg</t>
+  </si>
+  <si>
+    <t>9004.jpg</t>
+  </si>
+  <si>
+    <t>9005.jpg</t>
+  </si>
+  <si>
+    <t>9006.jpg</t>
+  </si>
+  <si>
+    <t>9007.jpg</t>
+  </si>
+  <si>
+    <t>9008.jpg</t>
+  </si>
+  <si>
+    <t>9009.jpg</t>
+  </si>
+  <si>
+    <t>9035.jpg</t>
+  </si>
+  <si>
+    <t>9010.jpg</t>
+  </si>
+  <si>
+    <t>9011.jpg</t>
+  </si>
+  <si>
+    <t>9012.jpg</t>
+  </si>
+  <si>
+    <t>9013.jpg</t>
+  </si>
+  <si>
+    <t>9014.jpg</t>
+  </si>
+  <si>
+    <t>9015.jpg</t>
+  </si>
+  <si>
+    <t>9016.jpg</t>
+  </si>
+  <si>
+    <t>9017.jpg</t>
+  </si>
+  <si>
+    <t>9018.jpg</t>
+  </si>
+  <si>
+    <t>9019.jpg</t>
+  </si>
+  <si>
+    <t>9020.jpg</t>
+  </si>
+  <si>
+    <t>9021.jpg</t>
+  </si>
+  <si>
+    <t>9022.jpg</t>
+  </si>
+  <si>
+    <t>9023.jpg</t>
+  </si>
+  <si>
+    <t>9024.jpg</t>
+  </si>
+  <si>
+    <t>9025.jpg</t>
+  </si>
+  <si>
+    <t>9026.jpg</t>
+  </si>
+  <si>
+    <t>9027.jpg</t>
+  </si>
+  <si>
+    <t>9028.jpg</t>
+  </si>
+  <si>
+    <t>9029.jpg</t>
+  </si>
+  <si>
+    <t>9030.jpg</t>
+  </si>
+  <si>
+    <t>9031.jpg</t>
+  </si>
+  <si>
+    <t>9032.jpg</t>
+  </si>
+  <si>
+    <t>9033.jpg</t>
+  </si>
+  <si>
+    <t>9034.jpg</t>
   </si>
 </sst>
 </file>
@@ -390,9 +495,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,7 +798,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -699,7 +807,7 @@
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
@@ -720,7 +828,7 @@
       <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
@@ -755,6 +863,9 @@
       <c r="E2" t="s">
         <v>21</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:12">
@@ -773,6 +884,9 @@
       <c r="E3" t="s">
         <v>22</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:12">
@@ -791,6 +905,9 @@
       <c r="E4" t="s">
         <v>23</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:12">
@@ -809,6 +926,9 @@
       <c r="E5" t="s">
         <v>24</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:12">
@@ -827,6 +947,9 @@
       <c r="E6" t="s">
         <v>25</v>
       </c>
+      <c r="F6" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:12">
@@ -845,6 +968,9 @@
       <c r="E7" t="s">
         <v>26</v>
       </c>
+      <c r="F7" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:12">
@@ -863,6 +989,9 @@
       <c r="E8" t="s">
         <v>27</v>
       </c>
+      <c r="F8" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:12">
@@ -881,6 +1010,9 @@
       <c r="E9" t="s">
         <v>28</v>
       </c>
+      <c r="F9" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:12">
@@ -899,6 +1031,9 @@
       <c r="E10" t="s">
         <v>29</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:12">
@@ -917,6 +1052,9 @@
       <c r="E11" t="s">
         <v>30</v>
       </c>
+      <c r="F11" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:12">
@@ -935,6 +1073,9 @@
       <c r="E12" t="s">
         <v>31</v>
       </c>
+      <c r="F12" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:12">
@@ -953,6 +1094,9 @@
       <c r="E13" t="s">
         <v>32</v>
       </c>
+      <c r="F13" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:12">
@@ -971,6 +1115,9 @@
       <c r="E14" t="s">
         <v>33</v>
       </c>
+      <c r="F14" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15">
@@ -988,6 +1135,9 @@
       <c r="E15" t="s">
         <v>34</v>
       </c>
+      <c r="F15" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16">
@@ -1005,8 +1155,11 @@
       <c r="E16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1022,8 +1175,11 @@
       <c r="E17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1039,8 +1195,11 @@
       <c r="E18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1056,8 +1215,11 @@
       <c r="E19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1073,8 +1235,11 @@
       <c r="E20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1090,8 +1255,11 @@
       <c r="E21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1107,8 +1275,11 @@
       <c r="E22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1124,8 +1295,11 @@
       <c r="E23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1141,8 +1315,11 @@
       <c r="E24" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1158,8 +1335,11 @@
       <c r="E25" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1175,8 +1355,11 @@
       <c r="E26" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1192,8 +1375,11 @@
       <c r="E27" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1209,8 +1395,11 @@
       <c r="E28" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1226,8 +1415,11 @@
       <c r="E29" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1243,8 +1435,11 @@
       <c r="E30" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1260,8 +1455,11 @@
       <c r="E31" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1277,8 +1475,11 @@
       <c r="E32" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1294,8 +1495,11 @@
       <c r="E33" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1311,8 +1515,11 @@
       <c r="E34" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1328,19 +1535,28 @@
       <c r="E35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>107</v>
       </c>
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
       <c r="D36" t="s">
         <v>20</v>
       </c>
       <c r="E36" t="s">
         <v>55</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
